--- a/static/data/events.xlsx
+++ b/static/data/events.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\PersonalProjects\SVG_site\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11811E35-048D-4415-8C85-404AB5899E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63828FB5-4EAD-4CAB-8443-062D52B45AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -54,37 +54,34 @@
     <t>Elementary School Presentation</t>
   </si>
   <si>
-    <t>Christmas Caroling</t>
-  </si>
-  <si>
-    <t>Virus Coloring Book Event 1</t>
-  </si>
-  <si>
     <t>Start_Time</t>
   </si>
   <si>
     <t>End_Time</t>
   </si>
   <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>Unlimited</t>
-  </si>
-  <si>
     <t>Spots_Taken</t>
   </si>
   <si>
-    <t>Pres</t>
-  </si>
-  <si>
-    <t>Book</t>
-  </si>
-  <si>
-    <t>Caroling</t>
-  </si>
-  <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>SVG Official Launch</t>
+  </si>
+  <si>
+    <t>Join us in giving a presentation about virology to a local elementary school!</t>
+  </si>
+  <si>
+    <t>We will be officially launching our club this Winter quarter.</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -404,19 +401,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -427,10 +424,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -439,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -451,109 +448,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>44480</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.625</v>
-      </c>
+        <v>44564</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44491</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.77083333333333337</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
         <v>14</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
-        <v>14</v>
+      <c r="I3">
+        <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44555</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/events.xlsx
+++ b/static/data/events.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\PersonalProjects\SVG_site\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63828FB5-4EAD-4CAB-8443-062D52B45AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E953DE12-0B6B-4AB5-955C-747A2C1EA8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Images</t>
   </si>
 </sst>
 </file>
@@ -401,19 +404,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.73046875" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -445,10 +448,13 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -469,10 +475,13 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -502,6 +511,9 @@
         <v>16</v>
       </c>
       <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
         <v>12</v>
       </c>
     </row>
